--- a/Parts-List/BeamExpansion-Parts.xlsx
+++ b/Parts-List/BeamExpansion-Parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\Parts-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B12AA32-2F40-4BAC-8B4A-9C923505689F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86D31A41-EFAA-4D02-AC0F-B04CC90CDCB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="19200" windowHeight="10200" xr2:uid="{665224A6-9143-4F30-A399-C84F6EB20AD1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CB1E71D6-4A5E-428E-852D-7E788AF99D93}"/>
   </bookViews>
   <sheets>
     <sheet name="Beam Expansion Module" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="65">
   <si>
     <t>Supplier</t>
   </si>
@@ -138,6 +138,12 @@
     <t>ACN127-030-A</t>
   </si>
   <si>
+    <t>Post Collar (5 pack)</t>
+  </si>
+  <si>
+    <t>R2/M-P5</t>
+  </si>
+  <si>
     <t>Positive Lens</t>
   </si>
   <si>
@@ -172,6 +178,12 @@
   </si>
   <si>
     <t>AC508-400-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post Collar </t>
+  </si>
+  <si>
+    <t>R2/M</t>
   </si>
   <si>
     <t>Iris</t>
@@ -227,7 +239,7 @@
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +269,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,18 +301,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -598,20 +628,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0F0985-6762-4602-AED1-877B512CAD4E}">
-  <dimension ref="A1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CBCBE2-63C2-4DB1-896E-CE51649B3CDD}">
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -632,12 +662,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -658,7 +688,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -679,249 +709,262 @@
         <v>116.02</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5">
+        <v>140.4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" ref="F7:F16" si="0">D7*E7</f>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5">
-        <v>140.4</v>
+        <v>5.95</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" ref="F8:F17" si="0">D8*E8</f>
-        <v>140.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5">
-        <v>5.95</v>
+        <v>16.16</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5">
-        <v>16.16</v>
+        <v>39.770000000000003</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>16.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39.770000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5">
-        <v>39.770000000000003</v>
+        <v>9.18</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>39.770000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5">
-        <v>9.18</v>
+        <v>7.96</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>9.18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5">
-        <v>7.96</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>7.96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5">
-        <v>4.1900000000000004</v>
+        <v>22.73</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D15" s="5">
-        <v>22.73</v>
+        <v>12.42</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>22.73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="5">
-        <v>12.42</v>
+        <v>46.07</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>12.42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>46.07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
-        <v>33</v>
+      <c r="C17" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="5">
-        <v>46.07</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="0"/>
-        <v>46.07</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <f>D17*E17</f>
+        <v>19.309999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20" s="5">
         <v>30.84</v>
@@ -934,15 +977,15 @@
         <v>61.68</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21" s="5">
         <v>52.97</v>
@@ -955,7 +998,7 @@
         <v>105.94</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -976,15 +1019,15 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D23" s="5">
         <v>4.01</v>
@@ -997,7 +1040,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1018,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1042,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1066,15 +1109,15 @@
         <v>45.46</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D27" s="5">
         <v>84.41</v>
@@ -1087,15 +1130,15 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D28" s="5">
         <v>84.41</v>
@@ -1108,136 +1151,132 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="5">
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3.86</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <f>D29*E29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="5">
         <v>122.55</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" ref="F31:F37" si="2">D31*E31</f>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" ref="F32:F38" si="2">D32*E32</f>
         <v>122.55</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="5">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="5">
         <v>67.16</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
         <f t="shared" si="2"/>
         <v>67.16</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D34" s="5">
         <v>5.95</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
         <f t="shared" si="2"/>
         <v>5.95</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="5">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="5">
         <v>4.01</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="5">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
         <f t="shared" si="2"/>
         <v>4.01</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D36" s="5">
         <v>9.18</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="5">
-        <v>7.96</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1247,143 +1286,163 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D37" s="5">
-        <v>22.73</v>
+        <v>7.96</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="5">
         <v>22.73</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="2"/>
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3.86</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <f>D39*E39</f>
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="5">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="5">
         <v>81.97</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5">
-        <f t="shared" ref="F41:F47" si="3">D41*E41</f>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" ref="F42:F48" si="3">D42*E42</f>
         <v>81.97</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D43" s="5">
         <v>5.95</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" s="5">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
         <f t="shared" si="3"/>
         <v>5.95</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="5">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="5">
         <v>4.01</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
         <f t="shared" si="3"/>
         <v>4.01</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D45" s="5">
         <v>9.18</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="5">
-        <v>7.96</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1393,101 +1452,138 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D46" s="5">
-        <v>22.73</v>
+        <v>7.96</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="5">
         <v>22.73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="5">
-        <v>117.41</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="3"/>
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="5">
         <v>117.41</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="5">
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="3"/>
+        <v>117.41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="5">
+        <v>3.86</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7">
+        <f>D49*E49</f>
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="5">
         <v>79.569999999999993</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" s="5">
-        <f>D50*E50</f>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
+        <f>D52*E52</f>
         <v>79.569999999999993</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="D51" s="5"/>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53">
-        <f>SUM(E3:E51)</f>
-        <v>36</v>
-      </c>
-      <c r="F53" s="5">
-        <f>SUM(F3:F51)</f>
-        <v>1884.7100000000005</v>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="D53" s="5"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="5">
+        <f>SUM(F3:F52)</f>
+        <v>1907.8800000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Parts-List/BeamExpansion-Parts.xlsx
+++ b/Parts-List/BeamExpansion-Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\Parts-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86D31A41-EFAA-4D02-AC0F-B04CC90CDCB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB216DA-0863-44DE-848E-A1AA5B57003C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CB1E71D6-4A5E-428E-852D-7E788AF99D93}"/>
   </bookViews>
@@ -16,6 +16,8 @@
     <sheet name="Beam Expansion Module" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -239,7 +241,7 @@
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,14 +252,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,17 +297,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -631,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CBCBE2-63C2-4DB1-896E-CE51649B3CDD}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,7 +646,7 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
@@ -663,7 +657,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -677,13 +671,13 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>528</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f>D3*E3</f>
         <v>528</v>
       </c>
@@ -698,26 +692,26 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>58.01</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>D4*E4</f>
         <v>116.02</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -729,13 +723,13 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>140.4</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" ref="F7:F16" si="0">D7*E7</f>
         <v>140.4</v>
       </c>
@@ -750,13 +744,13 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>5.95</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>5.95</v>
       </c>
@@ -771,13 +765,13 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>16.16</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>16.16</v>
       </c>
@@ -792,13 +786,13 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>39.770000000000003</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>39.770000000000003</v>
       </c>
@@ -813,13 +807,13 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>9.18</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>9.18</v>
       </c>
@@ -834,13 +828,13 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>7.96</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>7.96</v>
       </c>
@@ -855,13 +849,13 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>4.1900000000000004</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>4.1900000000000004</v>
       </c>
@@ -876,13 +870,13 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>22.73</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>22.73</v>
       </c>
@@ -897,13 +891,13 @@
       <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>12.42</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>12.42</v>
       </c>
@@ -918,43 +912,43 @@
       <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>46.07</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <f t="shared" si="0"/>
         <v>46.07</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>19.309999999999999</v>
       </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
         <f>D17*E17</f>
         <v>19.309999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -966,13 +960,13 @@
       <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>30.84</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <f t="shared" ref="F20:F28" si="1">D20*E20</f>
         <v>61.68</v>
       </c>
@@ -987,13 +981,13 @@
       <c r="C21" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>52.97</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <f t="shared" si="1"/>
         <v>105.94</v>
       </c>
@@ -1008,13 +1002,13 @@
       <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>5.95</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <f t="shared" si="1"/>
         <v>11.9</v>
       </c>
@@ -1029,13 +1023,13 @@
       <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>4.01</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <f t="shared" si="1"/>
         <v>8.02</v>
       </c>
@@ -1050,13 +1044,13 @@
       <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>9.18</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1074,13 +1068,13 @@
       <c r="C25" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>7.96</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1098,13 +1092,13 @@
       <c r="C26" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>22.73</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <f t="shared" si="1"/>
         <v>45.46</v>
       </c>
@@ -1119,13 +1113,13 @@
       <c r="C27" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>84.41</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <f t="shared" si="1"/>
         <v>84.41</v>
       </c>
@@ -1140,34 +1134,34 @@
       <c r="C28" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>84.41</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <f t="shared" si="1"/>
         <v>84.41</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>3.86</v>
       </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
         <f>D29*E29</f>
         <v>0</v>
       </c>
@@ -1176,10 +1170,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -1191,13 +1185,13 @@
       <c r="C32" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>122.55</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <f t="shared" ref="F32:F38" si="2">D32*E32</f>
         <v>122.55</v>
       </c>
@@ -1212,13 +1206,13 @@
       <c r="C33" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>67.16</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <f t="shared" si="2"/>
         <v>67.16</v>
       </c>
@@ -1233,13 +1227,13 @@
       <c r="C34" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>5.95</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <f t="shared" si="2"/>
         <v>5.95</v>
       </c>
@@ -1254,13 +1248,13 @@
       <c r="C35" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>4.01</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <f t="shared" si="2"/>
         <v>4.01</v>
       </c>
@@ -1275,13 +1269,13 @@
       <c r="C36" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>9.18</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1299,13 +1293,13 @@
       <c r="C37" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>7.96</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1323,34 +1317,34 @@
       <c r="C38" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>22.73</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <f t="shared" si="2"/>
         <v>22.73</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>3.86</v>
       </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
         <f>D39*E39</f>
         <v>0</v>
       </c>
@@ -1360,13 +1354,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
-      <c r="F40" s="5"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
@@ -1378,13 +1372,13 @@
       <c r="C42" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>81.97</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <f t="shared" ref="F42:F48" si="3">D42*E42</f>
         <v>81.97</v>
       </c>
@@ -1399,13 +1393,13 @@
       <c r="C43" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>5.95</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <f t="shared" si="3"/>
         <v>5.95</v>
       </c>
@@ -1420,13 +1414,13 @@
       <c r="C44" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>4.01</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <f t="shared" si="3"/>
         <v>4.01</v>
       </c>
@@ -1441,13 +1435,13 @@
       <c r="C45" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>9.18</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1465,13 +1459,13 @@
       <c r="C46" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>7.96</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1489,13 +1483,13 @@
       <c r="C47" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>22.73</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <f t="shared" si="3"/>
         <v>22.73</v>
       </c>
@@ -1510,43 +1504,43 @@
       <c r="C48" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>117.41</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="4">
         <f t="shared" si="3"/>
         <v>117.41</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>3.86</v>
       </c>
-      <c r="E49" s="6">
-        <v>1</v>
-      </c>
-      <c r="F49" s="7">
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
         <f>D49*E49</f>
         <v>3.86</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="5"/>
+      <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
@@ -1558,35 +1552,36 @@
       <c r="C52" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>79.569999999999993</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="4">
         <f>D52*E52</f>
         <v>79.569999999999993</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
-      <c r="D53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="D53" s="4"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="4">
         <f>SUM(F3:F52)</f>
         <v>1907.8800000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Parts-List/BeamExpansion-Parts.xlsx
+++ b/Parts-List/BeamExpansion-Parts.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\Parts-List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\LifeHackWebsite\Parts-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB216DA-0863-44DE-848E-A1AA5B57003C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CB1E71D6-4A5E-428E-852D-7E788AF99D93}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Beam Expansion Module" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="68">
   <si>
     <t>Supplier</t>
   </si>
@@ -231,17 +229,26 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Small Positive lens</t>
+  </si>
+  <si>
+    <t>f = 100 mm, Ø1" Achromatic Doublet, ARC: 400 - 700 nm </t>
+  </si>
+  <si>
+    <t>AC254-100-A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +284,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -307,7 +322,7 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -622,11 +637,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CBCBE2-63C2-4DB1-896E-CE51649B3CDD}">
-  <dimension ref="A1:G55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -799,7 +814,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1036,7 +1051,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -1169,298 +1184,301 @@
         <v>43</v>
       </c>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+    </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D32" s="4">
-        <v>122.55</v>
+        <v>5.95</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" ref="F32:F38" si="2">D32*E32</f>
-        <v>122.55</v>
+        <f t="shared" ref="F32:F37" si="2">D32*E32</f>
+        <v>5.95</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D33" s="4">
-        <v>67.16</v>
+        <v>39.770000000000003</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="2"/>
-        <v>67.16</v>
+        <v>39.770000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D34" s="4">
-        <v>5.95</v>
+        <v>9.18</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="2"/>
-        <v>5.95</v>
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D35" s="4">
-        <v>4.01</v>
+        <v>7.96</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="2"/>
-        <v>4.01</v>
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D36" s="4">
-        <v>9.18</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>43</v>
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D37" s="4">
-        <v>7.96</v>
+        <v>22.73</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3.86</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <f>D38*E38</f>
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="4">
-        <v>22.73</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4">
-        <f t="shared" si="2"/>
-        <v>22.73</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>49</v>
+      <c r="C39" t="s">
+        <v>67</v>
       </c>
       <c r="D39" s="4">
-        <v>3.86</v>
+        <v>60.87</v>
       </c>
       <c r="E39" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="6">
         <f>D39*E39</f>
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="F40" s="4"/>
+        <v>60.87</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D42" s="4">
-        <v>81.97</v>
+        <v>122.55</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" s="4">
         <f t="shared" ref="F42:F48" si="3">D42*E42</f>
-        <v>81.97</v>
+        <v>122.55</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D43" s="4">
-        <v>5.95</v>
+        <v>67.16</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" s="4">
         <f t="shared" si="3"/>
-        <v>5.95</v>
+        <v>67.16</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D44" s="4">
-        <v>4.01</v>
+        <v>5.95</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" s="4">
         <f t="shared" si="3"/>
-        <v>4.01</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D45" s="4">
-        <v>9.18</v>
+        <v>4.01</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>43</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D46" s="4">
-        <v>7.96</v>
+        <v>9.18</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1475,47 +1493,50 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D47" s="4">
-        <v>22.73</v>
+        <v>7.96</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" si="3"/>
-        <v>22.73</v>
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D48" s="4">
-        <v>117.41</v>
+        <v>22.73</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" s="4">
         <f t="shared" si="3"/>
-        <v>117.41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
@@ -1529,55 +1550,242 @@
         <v>3.86</v>
       </c>
       <c r="E49" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="6">
         <f>D49*E49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="4">
+        <v>81.97</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" ref="F52:F58" si="4">D52*E52</f>
+        <v>81.97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="4"/>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="4">
+        <v>4.01</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" si="4"/>
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="4">
+        <v>9.18</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="4">
+        <v>7.96</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="4">
+        <v>22.73</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <f t="shared" si="4"/>
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="4">
+        <v>117.41</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" si="4"/>
+        <v>117.41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="4">
         <v>3.86</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
+      <c r="E59" s="5">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6">
+        <f>D59*E59</f>
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D62" s="4">
         <v>79.569999999999993</v>
       </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" s="4">
-        <f>D52*E52</f>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <f>D62*E62</f>
         <v>79.569999999999993</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-      <c r="D53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
+      <c r="D63" s="4"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F55" s="4">
-        <f>SUM(F3:F52)</f>
-        <v>1907.8800000000003</v>
+      <c r="F65" s="4">
+        <f>SUM(F3:F62)</f>
+        <v>2041.3900000000003</v>
       </c>
     </row>
   </sheetData>
